--- a/dados_finais/sd12_qualidade_gestao_fiscal.xlsx
+++ b/dados_finais/sd12_qualidade_gestao_fiscal.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="226">
   <si>
     <t xml:space="preserve">id_municipio</t>
   </si>
@@ -692,6 +692,12 @@
   </si>
   <si>
     <t xml:space="preserve">0.5871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marabá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8003</t>
   </si>
 </sst>
 </file>
@@ -706,6 +712,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -787,13 +794,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A103" activeCellId="0" sqref="A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.28"/>
@@ -2212,6 +2219,20 @@
       </c>
       <c r="D101" s="0" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>1504208</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
